--- a/medicine/Handicap/Henri-Jacques_Stiker/Henri-Jacques_Stiker.xlsx
+++ b/medicine/Handicap/Henri-Jacques_Stiker/Henri-Jacques_Stiker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri-Jacques Stiker est un philosophe, historien et anthropologue de l’infirmité français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri-Jacques Stiker est actuellement[Quand ?] chercheur associé au laboratoire "Identités, Cultures, Territoires" (EA 337) à l'Université Denis-Diderot-Paris 7 et président de l’association Alter (Société internationale pour l’histoire des infirmités, déficiences, inadaptations, handicaps). Il est également éditeur en chef de la revue de recherche éponyme[1]. Il est également membre du comité de rédaction de la revue Handicap, revue de sciences humaines et sociales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri-Jacques Stiker est actuellement[Quand ?] chercheur associé au laboratoire "Identités, Cultures, Territoires" (EA 337) à l'Université Denis-Diderot-Paris 7 et président de l’association Alter (Société internationale pour l’histoire des infirmités, déficiences, inadaptations, handicaps). Il est également éditeur en chef de la revue de recherche éponyme. Il est également membre du comité de rédaction de la revue Handicap, revue de sciences humaines et sociales.
 Il est docteur en philosophie du langage (Sorbonne) et habilité à diriger des recherches (Anthropologie historique de l’infirmité).
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Contributions scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stiker étudie les représentations de l'infirmité par le biais des récits et représentations. Il s'appuie sur la sémiotique, l'étude de textes et témoignages, contextualisée par des sources historiques et sociologiques[2]. Il s'appuie notamment sur l'histoire des idées de Foucault.
-Son ouvrage le plus cité est Corps infirmes et sociétés[3], qui propose une réflexion philosophique sur les différentes définitions et perceptions du handicap à travers l'histoire. Ce livre est structuré en cinq grandes parties, progressant historiquement. La première présente les handicaps dans la Bible. La seconde s'intéresse aux handicaps à l'Antiquité : ils sont alors perçus comme une punition des dieux. La troisième partie se penche sur les sociétés médiévales, et l'importance croissante de l'église dans l'organisation de la pauvreté et la charité. La quatrième partie porte sur l'époque classique, et s'appuie notamment sur Lettre sur les aveugles à l'usage de ceux qui voient de Diderot, marquant un tournant vers l'éducabilité. Le dernier chapitre s'intéresse à la réadaptation, depuis la fin du XIXe siècle. La plus récente version de ce livre inclut deux nouveaux chapitres, l'un faisant le point sur les différentes théories du handicap (théorie de la stigmatisation, disability studies, théorie culturaliste et théorie de la liminalité [4]), le second proposant une analyse psychanalytique de l'exclusion des personnes en situation de handicap.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stiker étudie les représentations de l'infirmité par le biais des récits et représentations. Il s'appuie sur la sémiotique, l'étude de textes et témoignages, contextualisée par des sources historiques et sociologiques. Il s'appuie notamment sur l'histoire des idées de Foucault.
+Son ouvrage le plus cité est Corps infirmes et sociétés, qui propose une réflexion philosophique sur les différentes définitions et perceptions du handicap à travers l'histoire. Ce livre est structuré en cinq grandes parties, progressant historiquement. La première présente les handicaps dans la Bible. La seconde s'intéresse aux handicaps à l'Antiquité : ils sont alors perçus comme une punition des dieux. La troisième partie se penche sur les sociétés médiévales, et l'importance croissante de l'église dans l'organisation de la pauvreté et la charité. La quatrième partie porte sur l'époque classique, et s'appuie notamment sur Lettre sur les aveugles à l'usage de ceux qui voient de Diderot, marquant un tournant vers l'éducabilité. Le dernier chapitre s'intéresse à la réadaptation, depuis la fin du XIXe siècle. La plus récente version de ce livre inclut deux nouveaux chapitres, l'un faisant le point sur les différentes théories du handicap (théorie de la stigmatisation, disability studies, théorie culturaliste et théorie de la liminalité ), le second proposant une analyse psychanalytique de l'exclusion des personnes en situation de handicap.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Justice pour les personnes handicapées, avec Philippe Sanchez, PUG : Presses Universitaires de Grenoble, 2014
 Mère d'enfant handicapé, pourquoi moi ?, avec Chantal Bruno et Carine Maraquin, Erès, 2014
